--- a/Punto Funcion.xlsx
+++ b/Punto Funcion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="22230" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>media</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Costo = (Desarrolladores * Duración del proyecto en meses * sueldos )+ otros</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL </t>
-  </si>
-  <si>
     <t>HORAS PF PROMEDIO HOMBRE</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>6. Usar un web service para conectar las bases de datos de los hospitales con la aplicación, la aplicación se conectará a dichas bases para obtener los datos específicos de casos positivos de COVID 19 para realizar la semaforización y enviará los datos obtenidos de la encuesta al paciente.</t>
   </si>
   <si>
-    <t>7. Validador de cédula, el número de cédula ingresado debe ser un número real y se utilizará un algoritmo dígito validador de cédulas.</t>
-  </si>
-  <si>
     <t>baja</t>
   </si>
   <si>
@@ -233,13 +227,52 @@
   </si>
   <si>
     <t>-&gt;</t>
+  </si>
+  <si>
+    <t>4ta generación</t>
+  </si>
+  <si>
+    <t>ARRIENDO OFICINA</t>
+  </si>
+  <si>
+    <t>SERVICIOS BASICOS</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>RESERVA DE CONTINGENCIA</t>
+  </si>
+  <si>
+    <t>UTILIDAD (5%)</t>
+  </si>
+  <si>
+    <t>TOTAL OTROS</t>
+  </si>
+  <si>
+    <t>TELEFONO + INTERNET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBTOTAL </t>
+  </si>
+  <si>
+    <t>RESERVA DE GESTION (1%)</t>
+  </si>
+  <si>
+    <t>LINEA BASE</t>
+  </si>
+  <si>
+    <t>7. Validador de cédula, el número de cédula ingresado debe ser un número real y se utilizará un algoritmo dígito validador de cédulas,  se podrá elegir entre pasaporte o cédula.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,8 +325,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,17 +355,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -384,12 +435,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -403,8 +471,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -415,8 +482,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -719,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,10 +867,10 @@
     </row>
     <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -828,10 +899,10 @@
     </row>
     <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -860,10 +931,10 @@
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -892,7 +963,7 @@
     </row>
     <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -924,10 +995,10 @@
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -956,7 +1027,7 @@
     </row>
     <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -988,10 +1059,10 @@
     </row>
     <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1020,6 +1091,17 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
@@ -1306,13 +1388,13 @@
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1320,7 +1402,7 @@
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1328,7 +1410,7 @@
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>4</v>
       </c>
     </row>
@@ -1336,7 +1418,7 @@
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1344,7 +1426,7 @@
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1352,7 +1434,7 @@
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1360,7 +1442,7 @@
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1368,7 +1450,7 @@
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1376,7 +1458,7 @@
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1384,7 +1466,7 @@
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>3</v>
       </c>
     </row>
@@ -1392,7 +1474,7 @@
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1400,18 +1482,18 @@
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <f>(F18+K18+P18)*(0.65+(0.01*B36))</f>
         <v>582.40000000000009</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>60</v>
+      <c r="E33" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F33">
         <v>582</v>
@@ -1421,7 +1503,7 @@
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1429,7 +1511,7 @@
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>5</v>
       </c>
     </row>
@@ -1437,17 +1519,20 @@
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <f>SUM(B22:B35)</f>
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="10">
+        <v>48</v>
+      </c>
+      <c r="B38" s="9">
         <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,8 +1540,8 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <f>B38*F33</f>
-        <v>4656</v>
+        <f>B38*D33</f>
+        <v>4659.2000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1464,7 +1549,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,7 +1558,7 @@
       </c>
       <c r="B41">
         <f>B39/B40</f>
-        <v>2328</v>
+        <v>202.57391304347829</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1482,7 +1567,7 @@
       </c>
       <c r="B42">
         <f>B41/5</f>
-        <v>465.6</v>
+        <v>40.514782608695654</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,25 +1576,119 @@
       </c>
       <c r="B43">
         <f>B42/20</f>
-        <v>23.28</v>
+        <v>2.0257391304347827</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58">
+        <f>SUM(D48:D52) *B43</f>
+        <v>1418.0173913043479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>48</v>
+      <c r="B60" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11">
+        <f>(B40*B43*B45)+D58</f>
+        <v>24714.017391304347</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62">
+        <f>D60*0.01</f>
+        <v>247.14017391304347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63">
+        <f>D60*(0.05)</f>
+        <v>1235.7008695652175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10">
+        <f>SUM(D60:D63)</f>
+        <v>26796.858434782611</v>
       </c>
     </row>
   </sheetData>

--- a/Punto Funcion.xlsx
+++ b/Punto Funcion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niko\Documents\GitHub\PROYECTO-IS-II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PROYECTO-IS-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22230" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="22236" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -792,22 +792,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="69.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -839,7 +839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>27</v>
       </c>
@@ -865,7 +865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -961,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1089,10 +1089,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>56</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>17</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>21</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>26</v>
       </c>
@@ -1384,13 +1384,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1544,42 +1544,42 @@
         <v>4659.2000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
         <f>B39/B40</f>
-        <v>202.57391304347829</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>582.40000000000009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42">
         <f>B41/5</f>
-        <v>40.514782608695654</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>116.48000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43">
         <f>B42/20</f>
-        <v>2.0257391304347827</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.8240000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1587,12 +1587,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>60</v>
       </c>
@@ -1600,12 +1600,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>62</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>63</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>67</v>
       </c>
@@ -1629,16 +1629,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>66</v>
       </c>
       <c r="D58">
         <f>SUM(D48:D52) *B43</f>
-        <v>1418.0173913043479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4076.8000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>47</v>
       </c>
@@ -1648,14 +1648,14 @@
       <c r="C60" s="11"/>
       <c r="D60" s="11">
         <f>(B40*B43*B45)+D58</f>
-        <v>24714.017391304347</v>
+        <v>27372.800000000003</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -1663,32 +1663,32 @@
         <v>600</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>69</v>
       </c>
       <c r="D62">
         <f>D60*0.01</f>
-        <v>247.14017391304347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>273.72800000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>65</v>
       </c>
       <c r="D63">
         <f>D60*(0.05)</f>
-        <v>1235.7008695652175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1368.6400000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10">
         <f>SUM(D60:D63)</f>
-        <v>26796.858434782611</v>
+        <v>29615.168000000001</v>
       </c>
     </row>
   </sheetData>
